--- a/Data/all_charges/ViscosityCalculator/Viscosity Data.xlsx
+++ b/Data/all_charges/ViscosityCalculator/Viscosity Data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\Documents\Summer 2022\Garcia\Multi-scale Modeling\SSFillerChargeMD\Data\all_charges\ViscosityCalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE01ABF-D6DC-406B-A424-781D5BBA4D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4B55E8-444C-43A7-969D-3D3D85915D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2280" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2280" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ABCD" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>25f</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>q3</t>
+  </si>
+  <si>
+    <t>q4</t>
   </si>
 </sst>
 </file>
@@ -183,7 +186,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>ABCD!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -204,7 +207,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$C$1</c:f>
+              <c:f>ABCD!$B$1:$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -218,7 +221,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$C$2</c:f>
+              <c:f>ABCD!$B$2:$C$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -242,7 +245,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>ABCD!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -263,7 +266,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$C$1</c:f>
+              <c:f>ABCD!$B$1:$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -277,7 +280,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$C$3</c:f>
+              <c:f>ABCD!$B$3:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -301,7 +304,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>ABCD!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -322,7 +325,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$C$1</c:f>
+              <c:f>ABCD!$B$1:$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -336,7 +339,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$C$4</c:f>
+              <c:f>ABCD!$B$4:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -360,7 +363,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>ABCD!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -381,7 +384,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$C$1</c:f>
+              <c:f>ABCD!$B$1:$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -395,7 +398,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$C$5</c:f>
+              <c:f>ABCD!$B$5:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1519,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,15 +1533,18 @@
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1548,8 +1554,11 @@
       <c r="C2">
         <v>3.29118276549544</v>
       </c>
+      <c r="D2">
+        <v>3.3174930179162101</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1559,8 +1568,11 @@
       <c r="C3">
         <v>3.2849824148144098</v>
       </c>
+      <c r="D3">
+        <v>3.3501622339702002</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1570,8 +1582,11 @@
       <c r="C4">
         <v>3.3424718580744099</v>
       </c>
+      <c r="D4">
+        <v>3.8113775888358998</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1580,6 +1595,9 @@
       </c>
       <c r="C5">
         <v>3.9018441478995398</v>
+      </c>
+      <c r="D5">
+        <v>4.3186646781743399</v>
       </c>
     </row>
   </sheetData>
